--- a/Data/Eminence.xlsx
+++ b/Data/Eminence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Git in R\Projects\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,8 @@
     <sheet name="neg_geotaxis" sheetId="3" r:id="rId2"/>
     <sheet name="neg_geotasis(2)" sheetId="5" r:id="rId3"/>
     <sheet name="toxicity_test" sheetId="4" r:id="rId4"/>
-    <sheet name="survival2" sheetId="6" r:id="rId5"/>
+    <sheet name="new_toxicity" sheetId="7" r:id="rId5"/>
+    <sheet name="survival2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="46">
   <si>
     <t>D0</t>
   </si>
@@ -4121,7 +4122,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A19"/>
+      <selection activeCell="A11" sqref="A11:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4974,9 +4975,467 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
